--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate 2/week 1/W1_V3 FormulasInDataValidation.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate 2/week 1/W1_V3 FormulasInDataValidation.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mq20084022\Google Drive\Excel MOOC\003 Course 3 - Intermediate II\01 Week 1\01 Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate 2\week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E2410-2DA9-4FE6-AA77-ED6B83FA0F93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9168"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="BATH_020">Inventory!$A$5:$A$55</definedName>
     <definedName name="Departments">Lists!$C$4:$C$9</definedName>
     <definedName name="Origins">Lists!$E$4:$E$12</definedName>
+    <definedName name="Product_Code">Inventory!$A$4:$A$55</definedName>
     <definedName name="Suppliers">Lists!$A$4:$A$10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="143">
   <si>
     <t>Location</t>
   </si>
@@ -198,9 +201,6 @@
   </si>
   <si>
     <t>BATH-020</t>
-  </si>
-  <si>
-    <t>BATH-044</t>
   </si>
   <si>
     <t>BATH-082</t>
@@ -467,10 +467,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="00"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -551,7 +552,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -576,6 +577,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -584,34 +586,13 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -636,6 +617,27 @@
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -650,8 +652,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory" displayName="Inventory" ref="A3:M54" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" headerRowCellStyle="Heading 3">
-  <autoFilter ref="A3:M54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory" displayName="Inventory" ref="A3:M55" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A3:M55" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -667,49 +669,49 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" name="Product Code"/>
-    <tableColumn id="2" name="Item Description"/>
-    <tableColumn id="3" name="Supplier"/>
-    <tableColumn id="4" name="Department"/>
-    <tableColumn id="5" name="Origin"/>
-    <tableColumn id="6" name="Location"/>
-    <tableColumn id="7" name="Rack" dataDxfId="9"/>
-    <tableColumn id="8" name="In Stock" dataDxfId="8"/>
-    <tableColumn id="9" name="Target Level" dataDxfId="7"/>
-    <tableColumn id="10" name="Reorder Level" dataDxfId="6"/>
-    <tableColumn id="11" name="Last Ordered" dataDxfId="5"/>
-    <tableColumn id="12" name="Unit Cost" dataDxfId="4"/>
-    <tableColumn id="13" name="Retail Price" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product Code"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Item Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Supplier"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Department"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Origin"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Location"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Rack" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="In Stock" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Target Level" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Reorder Level" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Last Ordered" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Unit Cost" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Retail Price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="OriginsTable" displayName="OriginsTable" ref="E3:E12" totalsRowShown="0" headerRowBorderDxfId="2" headerRowCellStyle="Heading 3">
-  <autoFilter ref="E3:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="OriginsTable" displayName="OriginsTable" ref="E3:E12" totalsRowShown="0" headerRowBorderDxfId="11" headerRowCellStyle="Heading 3">
+  <autoFilter ref="E3:E12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Origins"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Origins"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="SuppliersTable" displayName="SuppliersTable" ref="A3:A10" totalsRowShown="0" headerRowBorderDxfId="1" headerRowCellStyle="Heading 3">
-  <autoFilter ref="A3:A10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="SuppliersTable" displayName="SuppliersTable" ref="A3:A10" totalsRowShown="0" headerRowBorderDxfId="10" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A3:A10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Suppliers"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Suppliers"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="DepartmentsTable" displayName="DepartmentsTable" ref="C3:C9" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 3">
-  <autoFilter ref="C3:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DepartmentsTable" displayName="DepartmentsTable" ref="C3:C9" totalsRowShown="0" headerRowBorderDxfId="9" headerRowCellStyle="Heading 3">
+  <autoFilter ref="C3:C9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Departments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Departments"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1011,10 +1013,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1035,7 +1039,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1061,13 +1065,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -1079,22 +1083,22 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="L3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1102,10 +1106,10 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1140,13 +1144,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -1184,10 +1188,10 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1196,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -1222,13 +1226,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1263,13 +1267,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -1304,13 +1308,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1322,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="10">
         <v>14</v>
@@ -1345,13 +1349,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -1386,13 +1390,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -1427,13 +1431,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -1468,13 +1472,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -1509,13 +1513,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1550,13 +1554,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1597,7 +1601,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1632,13 +1636,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1673,13 +1677,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1717,10 +1721,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1755,13 +1759,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1796,13 +1800,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1837,13 +1841,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -1878,13 +1882,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1919,13 +1923,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -1960,13 +1964,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -2007,7 +2011,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -2042,13 +2046,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -2089,7 +2093,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -2124,13 +2128,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2165,13 +2169,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2206,13 +2210,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2247,13 +2251,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -2288,13 +2292,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -2329,13 +2333,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -2370,13 +2374,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -2411,13 +2415,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -2452,13 +2456,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -2493,13 +2497,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
@@ -2534,13 +2538,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
         <v>36</v>
@@ -2575,13 +2579,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
         <v>36</v>
@@ -2616,13 +2620,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -2663,7 +2667,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
         <v>36</v>
@@ -2698,13 +2702,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
         <v>36</v>
@@ -2739,13 +2743,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
         <v>36</v>
@@ -2780,13 +2784,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
         <v>36</v>
@@ -2821,13 +2825,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
         <v>36</v>
@@ -2862,13 +2866,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
         <v>36</v>
@@ -2903,13 +2907,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
@@ -2944,13 +2948,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
         <v>36</v>
@@ -2985,13 +2989,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -3026,13 +3030,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -3067,13 +3071,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -3108,13 +3112,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -3149,13 +3153,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -3188,26 +3192,35 @@
         <v>830</v>
       </c>
     </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G55" s="9"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Rack Number" error="Please enter a rack number between 1 and 9" promptTitle="Rack Number" prompt="Please enter a rack number between 1 and 9" sqref="G4:G54">
+  <dataValidations count="7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Rack Number" error="Please enter a rack number between 1 and 9" promptTitle="Rack Number" prompt="Please enter a rack number between 1 and 9" sqref="G4:G55" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Should be 8 characters_x000a_" sqref="A4:A54">
-      <formula1>8</formula1>
+    <dataValidation type="custom" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Duplicate product code not accepted _x000a_" sqref="A4:A6 A8:A55 A7" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"countifs(Product_Code,A4) &lt;=1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F55" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Basement,Showroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E55" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Origins</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C55" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Suppliers</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D55" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Departments</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K55" xr:uid="{29886B6E-D4A7-4E38-8BC5-1A100239E768}">
+      <formula1>TODAY()</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3219,10 +3232,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3235,7 +3250,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3245,18 +3260,18 @@
     <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -3267,7 +3282,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -3278,7 +3293,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3289,7 +3304,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -3300,7 +3315,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -3311,7 +3326,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -3322,7 +3337,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -3335,7 +3350,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
